--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>4.941349178474223</v>
+        <v>17.798382102094</v>
       </c>
       <c r="R2">
-        <v>44.472142606268</v>
+        <v>160.185438918846</v>
       </c>
       <c r="S2">
-        <v>0.002675357682633125</v>
+        <v>0.008957498855562152</v>
       </c>
       <c r="T2">
-        <v>0.002675357682633125</v>
+        <v>0.008957498855562152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>14.42730218639233</v>
+        <v>46.72993182415801</v>
       </c>
       <c r="R3">
-        <v>129.845719677531</v>
+        <v>420.569386417422</v>
       </c>
       <c r="S3">
-        <v>0.007811266184583351</v>
+        <v>0.02351805396885742</v>
       </c>
       <c r="T3">
-        <v>0.007811266184583348</v>
+        <v>0.02351805396885742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>1.303948964637222</v>
+        <v>3.354074172292001</v>
       </c>
       <c r="R4">
-        <v>11.735540681735</v>
+        <v>30.18666755062801</v>
       </c>
       <c r="S4">
-        <v>0.0007059873233611234</v>
+        <v>0.001688025090563791</v>
       </c>
       <c r="T4">
-        <v>0.0007059873233611232</v>
+        <v>0.00168802509056379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H5">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J5">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>0.3986304309014444</v>
+        <v>1.262586643696</v>
       </c>
       <c r="R5">
-        <v>3.587673878113</v>
+        <v>11.363279793264</v>
       </c>
       <c r="S5">
-        <v>0.0002158274890771506</v>
+        <v>0.0006354295773110968</v>
       </c>
       <c r="T5">
-        <v>0.0002158274890771506</v>
+        <v>0.0006354295773110968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>305.2920071436814</v>
+        <v>339.5004834429963</v>
       </c>
       <c r="R6">
-        <v>2747.628064293132</v>
+        <v>3055.504350986967</v>
       </c>
       <c r="S6">
-        <v>0.1652919652625184</v>
+        <v>0.1708624511182761</v>
       </c>
       <c r="T6">
-        <v>0.1652919652625184</v>
+        <v>0.1708624511182761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
-        <v>891.3638528803911</v>
+        <v>891.3638528803909</v>
       </c>
       <c r="R7">
-        <v>8022.27467592352</v>
+        <v>8022.274675923519</v>
       </c>
       <c r="S7">
-        <v>0.4826044559274324</v>
+        <v>0.4486020496844035</v>
       </c>
       <c r="T7">
-        <v>0.4826044559274323</v>
+        <v>0.4486020496844036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J8">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>80.56204535416836</v>
+        <v>63.97827602896734</v>
       </c>
       <c r="R8">
-        <v>725.0584081875152</v>
+        <v>575.804484260706</v>
       </c>
       <c r="S8">
-        <v>0.0436181049309015</v>
+        <v>0.03219873194220784</v>
       </c>
       <c r="T8">
-        <v>0.0436181049309015</v>
+        <v>0.03219873194220784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>369.083199</v>
       </c>
       <c r="I9">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J9">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>24.62863480455967</v>
+        <v>24.08358093812533</v>
       </c>
       <c r="R9">
-        <v>221.657713241037</v>
+        <v>216.752228443128</v>
       </c>
       <c r="S9">
-        <v>0.0133344973118232</v>
+        <v>0.01212068869258152</v>
       </c>
       <c r="T9">
-        <v>0.0133344973118232</v>
+        <v>0.01212068869258153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>122.8048722050107</v>
+        <v>153.9560444606274</v>
       </c>
       <c r="R10">
-        <v>1105.243849845096</v>
+        <v>1385.604400145647</v>
       </c>
       <c r="S10">
-        <v>0.06648932233926896</v>
+        <v>0.0774823848680436</v>
       </c>
       <c r="T10">
-        <v>0.06648932233926895</v>
+        <v>0.0774823848680436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H11">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J11">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>358.554503490898</v>
+        <v>404.2140134026977</v>
       </c>
       <c r="R11">
-        <v>3226.990531418082</v>
+        <v>3637.926120624279</v>
       </c>
       <c r="S11">
-        <v>0.1941294798060149</v>
+        <v>0.2034312187303173</v>
       </c>
       <c r="T11">
-        <v>0.1941294798060148</v>
+        <v>0.2034312187303173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H12">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J12">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>32.40638946579667</v>
+        <v>29.01274899210512</v>
       </c>
       <c r="R12">
-        <v>291.65750519217</v>
+        <v>261.114740928946</v>
       </c>
       <c r="S12">
-        <v>0.01754554877469536</v>
+        <v>0.0146014207585148</v>
       </c>
       <c r="T12">
-        <v>0.01754554877469535</v>
+        <v>0.0146014207585148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H13">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J13">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>9.906962118187332</v>
+        <v>10.92137725424978</v>
       </c>
       <c r="R13">
-        <v>89.16265906368599</v>
+        <v>98.292395288248</v>
       </c>
       <c r="S13">
-        <v>0.005363852311815751</v>
+        <v>0.005496467246008575</v>
       </c>
       <c r="T13">
-        <v>0.005363852311815751</v>
+        <v>0.005496467246008575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H14">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I14">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J14">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>0.09283499744933335</v>
+        <v>0.2074386269291111</v>
       </c>
       <c r="R14">
-        <v>0.835514977044</v>
+        <v>1.866947642362</v>
       </c>
       <c r="S14">
-        <v>5.026295747834413E-05</v>
+        <v>0.0001043988859581953</v>
       </c>
       <c r="T14">
-        <v>5.026295747834412E-05</v>
+        <v>0.0001043988859581954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H15">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I15">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J15">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>0.271051187297</v>
+        <v>0.5446333738926666</v>
       </c>
       <c r="R15">
-        <v>2.439460685673</v>
+        <v>4.901700365033999</v>
       </c>
       <c r="S15">
-        <v>0.0001467532145837489</v>
+        <v>0.000274100915204565</v>
       </c>
       <c r="T15">
-        <v>0.0001467532145837489</v>
+        <v>0.000274100915204565</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H16">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I16">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J16">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.02449778277833334</v>
+        <v>0.03909144870177778</v>
       </c>
       <c r="R16">
-        <v>0.220480045005</v>
+        <v>0.351823038316</v>
       </c>
       <c r="S16">
-        <v>1.326365107914291E-05</v>
+        <v>1.967378860617023E-05</v>
       </c>
       <c r="T16">
-        <v>1.326365107914291E-05</v>
+        <v>1.967378860617023E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.037411</v>
+        <v>0.07517133333333333</v>
       </c>
       <c r="H17">
-        <v>0.112233</v>
+        <v>0.225514</v>
       </c>
       <c r="I17">
-        <v>0.0002143346558750279</v>
+        <v>0.0004055794673521549</v>
       </c>
       <c r="J17">
-        <v>0.0002143346558750279</v>
+        <v>0.000405579467352155</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.007489220797666666</v>
+        <v>0.01471533975644444</v>
       </c>
       <c r="R17">
-        <v>0.06740298717899999</v>
+        <v>0.132438057808</v>
       </c>
       <c r="S17">
-        <v>4.054832733791962E-06</v>
+        <v>7.405877583224345E-06</v>
       </c>
       <c r="T17">
-        <v>4.054832733791962E-06</v>
+        <v>7.405877583224345E-06</v>
       </c>
     </row>
   </sheetData>
